--- a/hes2020/kira/sözleşmeler/Doğuş/21 HSP adem duman.xlsx
+++ b/hes2020/kira/sözleşmeler/Doğuş/21 HSP adem duman.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="65">
   <si>
     <t xml:space="preserve">ADEM DUMAN </t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023 tüfe artışı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
   </si>
   <si>
     <t xml:space="preserve">Alacaklı Adı Soyadı / Unvanı</t>
@@ -1560,7 +1563,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1638,10 +1641,6 @@
       <c r="C11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">F10+E11</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1653,10 +1652,6 @@
       <c r="C12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">F11+E12</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1668,10 +1663,6 @@
       <c r="C13" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">F12+E13</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1684,10 +1675,6 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="n">
-        <f aca="false">F13+E14</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1700,10 +1687,6 @@
         <v>8</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="n">
-        <f aca="false">F14+E15</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
@@ -1715,10 +1698,6 @@
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="n">
-        <f aca="false">F15+E17</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1731,10 +1710,6 @@
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="n">
-        <f aca="false">F17+E18</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1746,10 +1721,6 @@
       <c r="C19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">F18+E19</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1762,10 +1733,6 @@
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="n">
-        <f aca="false">F19+E20</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1778,10 +1745,6 @@
         <v>7</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="n">
-        <f aca="false">F20+E21</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1794,10 +1757,6 @@
         <v>7</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="n">
-        <f aca="false">F21+E22</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1810,10 +1769,6 @@
         <v>7</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="n">
-        <f aca="false">F22+E23</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1825,10 +1780,6 @@
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <f aca="false">F23+E24</f>
-        <v>22000</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
@@ -1852,6 +1803,9 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,7 +1852,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="F11:F24 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1912,10 +1866,10 @@
     <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1923,10 +1877,10 @@
     <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1939,13 +1893,13 @@
     </row>
     <row r="4" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1953,10 +1907,10 @@
     <row r="5" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1964,10 +1918,10 @@
     <row r="6" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1975,10 +1929,10 @@
     <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1986,23 +1940,23 @@
     <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2010,10 +1964,10 @@
     <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2021,10 +1975,10 @@
     <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2032,10 +1986,10 @@
     <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2113,7 +2067,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="1" sqref="F11:F24 H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2141,25 +2095,25 @@
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,10 +2137,10 @@
         <v>İkibin TL</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2166,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +2192,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,7 +2218,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,7 +2244,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2270,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2296,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,7 +2322,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2348,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2374,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2400,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,7 +2426,7 @@
         <v>NAKDEN</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,8 +2530,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A84" activeCellId="1" sqref="F11:F24 A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,7 +2578,7 @@
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
       <c r="D2" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="40" t="str">
         <f aca="false">$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
@@ -2632,23 +2586,23 @@
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="37"/>
       <c r="M2" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="42"/>
       <c r="O2" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="43"/>
     </row>
@@ -2657,7 +2611,7 @@
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="33"/>
@@ -2713,7 +2667,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="57" t="str">
@@ -2778,7 +2732,7 @@
       <c r="B8" s="45"/>
       <c r="C8" s="33"/>
       <c r="D8" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="57"/>
@@ -2821,7 +2775,7 @@
       <c r="D10" s="62"/>
       <c r="E10" s="40"/>
       <c r="F10" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="64" t="str">
         <f aca="false">"İsim : "&amp;$D9</f>
@@ -2871,7 +2825,7 @@
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="46"/>
       <c r="N12" s="42"/>
@@ -2927,7 +2881,7 @@
       <c r="D15" s="62"/>
       <c r="E15" s="40"/>
       <c r="F15" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -2948,7 +2902,7 @@
       <c r="B16" s="45"/>
       <c r="C16" s="33"/>
       <c r="D16" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="63"/>
@@ -2982,7 +2936,7 @@
       <c r="J17" s="67"/>
       <c r="K17" s="33"/>
       <c r="L17" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -2994,7 +2948,7 @@
       <c r="B18" s="45"/>
       <c r="C18" s="33"/>
       <c r="D18" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="63"/>
@@ -3095,7 +3049,7 @@
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="40" t="str">
         <f aca="false">$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
@@ -3103,23 +3057,23 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="0"/>
       <c r="L23" s="37"/>
       <c r="M23" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P23" s="43"/>
     </row>
@@ -3128,7 +3082,7 @@
       <c r="B24" s="45"/>
       <c r="C24" s="46"/>
       <c r="D24" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="33"/>
@@ -3184,7 +3138,7 @@
       <c r="B26" s="45"/>
       <c r="C26" s="46"/>
       <c r="D26" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="57" t="str">
@@ -3249,7 +3203,7 @@
       <c r="B29" s="45"/>
       <c r="C29" s="33"/>
       <c r="D29" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="57"/>
@@ -3292,7 +3246,7 @@
       <c r="D31" s="62"/>
       <c r="E31" s="40"/>
       <c r="F31" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D30</f>
@@ -3342,7 +3296,7 @@
       <c r="J33" s="67"/>
       <c r="K33" s="67"/>
       <c r="L33" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="46"/>
       <c r="N33" s="42"/>
@@ -3398,7 +3352,7 @@
       <c r="D36" s="62"/>
       <c r="E36" s="40"/>
       <c r="F36" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -3419,7 +3373,7 @@
       <c r="B37" s="45"/>
       <c r="C37" s="33"/>
       <c r="D37" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="63"/>
@@ -3453,7 +3407,7 @@
       <c r="J38" s="67"/>
       <c r="K38" s="33"/>
       <c r="L38" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
@@ -3465,7 +3419,7 @@
       <c r="B39" s="45"/>
       <c r="C39" s="33"/>
       <c r="D39" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="63"/>
@@ -3548,7 +3502,7 @@
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="40" t="str">
         <f aca="false">$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
@@ -3556,23 +3510,23 @@
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J44" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44" s="0"/>
       <c r="L44" s="37"/>
       <c r="M44" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P44" s="43"/>
     </row>
@@ -3581,7 +3535,7 @@
       <c r="B45" s="45"/>
       <c r="C45" s="46"/>
       <c r="D45" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="33"/>
@@ -3637,7 +3591,7 @@
       <c r="B47" s="45"/>
       <c r="C47" s="46"/>
       <c r="D47" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="57" t="str">
@@ -3702,7 +3656,7 @@
       <c r="B50" s="45"/>
       <c r="C50" s="33"/>
       <c r="D50" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="57"/>
@@ -3745,7 +3699,7 @@
       <c r="D52" s="62"/>
       <c r="E52" s="40"/>
       <c r="F52" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D51</f>
@@ -3795,7 +3749,7 @@
       <c r="J54" s="67"/>
       <c r="K54" s="67"/>
       <c r="L54" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M54" s="46"/>
       <c r="N54" s="42"/>
@@ -3851,7 +3805,7 @@
       <c r="D57" s="62"/>
       <c r="E57" s="40"/>
       <c r="F57" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -3872,7 +3826,7 @@
       <c r="B58" s="45"/>
       <c r="C58" s="33"/>
       <c r="D58" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="63"/>
@@ -3906,7 +3860,7 @@
       <c r="J59" s="67"/>
       <c r="K59" s="33"/>
       <c r="L59" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -3918,7 +3872,7 @@
       <c r="B60" s="45"/>
       <c r="C60" s="33"/>
       <c r="D60" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="63"/>
@@ -4001,7 +3955,7 @@
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E64" s="40" t="str">
         <f aca="false">$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
@@ -4009,23 +3963,23 @@
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K64" s="0"/>
       <c r="L64" s="37"/>
       <c r="M64" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N64" s="42"/>
       <c r="O64" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P64" s="43"/>
     </row>
@@ -4034,7 +3988,7 @@
       <c r="B65" s="45"/>
       <c r="C65" s="46"/>
       <c r="D65" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="33"/>
@@ -4090,7 +4044,7 @@
       <c r="B67" s="45"/>
       <c r="C67" s="46"/>
       <c r="D67" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="57" t="str">
@@ -4155,7 +4109,7 @@
       <c r="B70" s="45"/>
       <c r="C70" s="33"/>
       <c r="D70" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E70" s="40"/>
       <c r="F70" s="57"/>
@@ -4198,7 +4152,7 @@
       <c r="D72" s="62"/>
       <c r="E72" s="40"/>
       <c r="F72" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G72" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D71</f>
@@ -4248,7 +4202,7 @@
       <c r="J74" s="67"/>
       <c r="K74" s="67"/>
       <c r="L74" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M74" s="46"/>
       <c r="N74" s="42"/>
@@ -4304,7 +4258,7 @@
       <c r="D77" s="62"/>
       <c r="E77" s="40"/>
       <c r="F77" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -4325,7 +4279,7 @@
       <c r="B78" s="45"/>
       <c r="C78" s="33"/>
       <c r="D78" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E78" s="40"/>
       <c r="F78" s="63"/>
@@ -4359,7 +4313,7 @@
       <c r="J79" s="67"/>
       <c r="K79" s="33"/>
       <c r="L79" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M79" s="33"/>
       <c r="N79" s="33"/>
@@ -4371,7 +4325,7 @@
       <c r="B80" s="45"/>
       <c r="C80" s="33"/>
       <c r="D80" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E80" s="40"/>
       <c r="F80" s="63"/>
@@ -4454,7 +4408,7 @@
       <c r="B85" s="38"/>
       <c r="C85" s="37"/>
       <c r="D85" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E85" s="40" t="str">
         <f aca="false">$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
@@ -4462,23 +4416,23 @@
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H85" s="37"/>
       <c r="I85" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J85" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K85" s="0"/>
       <c r="L85" s="37"/>
       <c r="M85" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N85" s="42"/>
       <c r="O85" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P85" s="43"/>
     </row>
@@ -4487,7 +4441,7 @@
       <c r="B86" s="45"/>
       <c r="C86" s="46"/>
       <c r="D86" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E86" s="40"/>
       <c r="F86" s="33"/>
@@ -4543,7 +4497,7 @@
       <c r="B88" s="45"/>
       <c r="C88" s="46"/>
       <c r="D88" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E88" s="40"/>
       <c r="F88" s="57" t="str">
@@ -4608,7 +4562,7 @@
       <c r="B91" s="45"/>
       <c r="C91" s="33"/>
       <c r="D91" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E91" s="40"/>
       <c r="F91" s="57"/>
@@ -4651,7 +4605,7 @@
       <c r="D93" s="62"/>
       <c r="E93" s="40"/>
       <c r="F93" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G93" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D92</f>
@@ -4701,7 +4655,7 @@
       <c r="J95" s="67"/>
       <c r="K95" s="67"/>
       <c r="L95" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M95" s="46"/>
       <c r="N95" s="42"/>
@@ -4757,7 +4711,7 @@
       <c r="D98" s="62"/>
       <c r="E98" s="40"/>
       <c r="F98" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -4778,7 +4732,7 @@
       <c r="B99" s="45"/>
       <c r="C99" s="33"/>
       <c r="D99" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E99" s="40"/>
       <c r="F99" s="63"/>
@@ -4812,7 +4766,7 @@
       <c r="J100" s="67"/>
       <c r="K100" s="33"/>
       <c r="L100" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
@@ -4824,7 +4778,7 @@
       <c r="B101" s="45"/>
       <c r="C101" s="33"/>
       <c r="D101" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E101" s="40"/>
       <c r="F101" s="63"/>
@@ -4907,7 +4861,7 @@
       <c r="B106" s="38"/>
       <c r="C106" s="37"/>
       <c r="D106" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E106" s="40" t="str">
         <f aca="false">$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
@@ -4915,23 +4869,23 @@
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H106" s="37"/>
       <c r="I106" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J106" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K106" s="0"/>
       <c r="L106" s="37"/>
       <c r="M106" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N106" s="42"/>
       <c r="O106" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P106" s="43"/>
     </row>
@@ -4940,7 +4894,7 @@
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
       <c r="D107" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E107" s="40"/>
       <c r="F107" s="33"/>
@@ -4996,7 +4950,7 @@
       <c r="B109" s="45"/>
       <c r="C109" s="46"/>
       <c r="D109" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E109" s="40"/>
       <c r="F109" s="57" t="str">
@@ -5061,7 +5015,7 @@
       <c r="B112" s="45"/>
       <c r="C112" s="33"/>
       <c r="D112" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E112" s="40"/>
       <c r="F112" s="57"/>
@@ -5104,7 +5058,7 @@
       <c r="D114" s="62"/>
       <c r="E114" s="40"/>
       <c r="F114" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G114" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D113</f>
@@ -5154,7 +5108,7 @@
       <c r="J116" s="67"/>
       <c r="K116" s="67"/>
       <c r="L116" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M116" s="46"/>
       <c r="N116" s="42"/>
@@ -5210,7 +5164,7 @@
       <c r="D119" s="62"/>
       <c r="E119" s="40"/>
       <c r="F119" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -5231,7 +5185,7 @@
       <c r="B120" s="45"/>
       <c r="C120" s="33"/>
       <c r="D120" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E120" s="40"/>
       <c r="F120" s="63"/>
@@ -5265,7 +5219,7 @@
       <c r="J121" s="67"/>
       <c r="K121" s="33"/>
       <c r="L121" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M121" s="33"/>
       <c r="N121" s="33"/>
@@ -5277,7 +5231,7 @@
       <c r="B122" s="45"/>
       <c r="C122" s="33"/>
       <c r="D122" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E122" s="40"/>
       <c r="F122" s="63"/>
@@ -5360,7 +5314,7 @@
       <c r="B126" s="38"/>
       <c r="C126" s="37"/>
       <c r="D126" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E126" s="40" t="str">
         <f aca="false">$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
@@ -5368,23 +5322,23 @@
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H126" s="37"/>
       <c r="I126" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J126" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K126" s="0"/>
       <c r="L126" s="37"/>
       <c r="M126" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N126" s="42"/>
       <c r="O126" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P126" s="43"/>
     </row>
@@ -5393,7 +5347,7 @@
       <c r="B127" s="45"/>
       <c r="C127" s="46"/>
       <c r="D127" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E127" s="40"/>
       <c r="F127" s="33"/>
@@ -5449,7 +5403,7 @@
       <c r="B129" s="45"/>
       <c r="C129" s="46"/>
       <c r="D129" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E129" s="40"/>
       <c r="F129" s="57" t="str">
@@ -5514,7 +5468,7 @@
       <c r="B132" s="45"/>
       <c r="C132" s="33"/>
       <c r="D132" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E132" s="40"/>
       <c r="F132" s="57"/>
@@ -5557,7 +5511,7 @@
       <c r="D134" s="62"/>
       <c r="E134" s="40"/>
       <c r="F134" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G134" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D133</f>
@@ -5607,7 +5561,7 @@
       <c r="J136" s="67"/>
       <c r="K136" s="67"/>
       <c r="L136" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M136" s="46"/>
       <c r="N136" s="42"/>
@@ -5663,7 +5617,7 @@
       <c r="D139" s="62"/>
       <c r="E139" s="40"/>
       <c r="F139" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -5684,7 +5638,7 @@
       <c r="B140" s="45"/>
       <c r="C140" s="33"/>
       <c r="D140" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E140" s="40"/>
       <c r="F140" s="63"/>
@@ -5718,7 +5672,7 @@
       <c r="J141" s="67"/>
       <c r="K141" s="33"/>
       <c r="L141" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M141" s="33"/>
       <c r="N141" s="33"/>
@@ -5730,7 +5684,7 @@
       <c r="B142" s="45"/>
       <c r="C142" s="33"/>
       <c r="D142" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E142" s="40"/>
       <c r="F142" s="63"/>
@@ -5813,7 +5767,7 @@
       <c r="B147" s="38"/>
       <c r="C147" s="37"/>
       <c r="D147" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E147" s="40" t="str">
         <f aca="false">$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
@@ -5821,23 +5775,23 @@
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H147" s="37"/>
       <c r="I147" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J147" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K147" s="0"/>
       <c r="L147" s="37"/>
       <c r="M147" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N147" s="42"/>
       <c r="O147" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P147" s="43"/>
     </row>
@@ -5846,7 +5800,7 @@
       <c r="B148" s="45"/>
       <c r="C148" s="46"/>
       <c r="D148" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E148" s="40"/>
       <c r="F148" s="33"/>
@@ -5902,7 +5856,7 @@
       <c r="B150" s="45"/>
       <c r="C150" s="46"/>
       <c r="D150" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E150" s="40"/>
       <c r="F150" s="57" t="str">
@@ -5967,7 +5921,7 @@
       <c r="B153" s="45"/>
       <c r="C153" s="33"/>
       <c r="D153" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E153" s="40"/>
       <c r="F153" s="57"/>
@@ -6010,7 +5964,7 @@
       <c r="D155" s="62"/>
       <c r="E155" s="40"/>
       <c r="F155" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G155" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D154</f>
@@ -6060,7 +6014,7 @@
       <c r="J157" s="67"/>
       <c r="K157" s="67"/>
       <c r="L157" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M157" s="46"/>
       <c r="N157" s="42"/>
@@ -6116,7 +6070,7 @@
       <c r="D160" s="62"/>
       <c r="E160" s="40"/>
       <c r="F160" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -6137,7 +6091,7 @@
       <c r="B161" s="45"/>
       <c r="C161" s="33"/>
       <c r="D161" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E161" s="40"/>
       <c r="F161" s="63"/>
@@ -6171,7 +6125,7 @@
       <c r="J162" s="67"/>
       <c r="K162" s="33"/>
       <c r="L162" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M162" s="33"/>
       <c r="N162" s="33"/>
@@ -6183,7 +6137,7 @@
       <c r="B163" s="45"/>
       <c r="C163" s="33"/>
       <c r="D163" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E163" s="40"/>
       <c r="F163" s="63"/>
@@ -6266,7 +6220,7 @@
       <c r="B168" s="38"/>
       <c r="C168" s="37"/>
       <c r="D168" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E168" s="40" t="str">
         <f aca="false">$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
@@ -6274,23 +6228,23 @@
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H168" s="37"/>
       <c r="I168" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J168" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K168" s="0"/>
       <c r="L168" s="37"/>
       <c r="M168" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N168" s="42"/>
       <c r="O168" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P168" s="43"/>
     </row>
@@ -6299,7 +6253,7 @@
       <c r="B169" s="45"/>
       <c r="C169" s="46"/>
       <c r="D169" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E169" s="40"/>
       <c r="F169" s="33"/>
@@ -6355,7 +6309,7 @@
       <c r="B171" s="45"/>
       <c r="C171" s="46"/>
       <c r="D171" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E171" s="40"/>
       <c r="F171" s="57" t="str">
@@ -6420,7 +6374,7 @@
       <c r="B174" s="45"/>
       <c r="C174" s="33"/>
       <c r="D174" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E174" s="40"/>
       <c r="F174" s="57"/>
@@ -6463,7 +6417,7 @@
       <c r="D176" s="62"/>
       <c r="E176" s="40"/>
       <c r="F176" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G176" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D175</f>
@@ -6513,7 +6467,7 @@
       <c r="J178" s="67"/>
       <c r="K178" s="67"/>
       <c r="L178" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M178" s="46"/>
       <c r="N178" s="42"/>
@@ -6569,7 +6523,7 @@
       <c r="D181" s="62"/>
       <c r="E181" s="40"/>
       <c r="F181" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -6590,7 +6544,7 @@
       <c r="B182" s="45"/>
       <c r="C182" s="33"/>
       <c r="D182" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E182" s="40"/>
       <c r="F182" s="63"/>
@@ -6624,7 +6578,7 @@
       <c r="J183" s="67"/>
       <c r="K183" s="33"/>
       <c r="L183" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M183" s="33"/>
       <c r="N183" s="33"/>
@@ -6636,7 +6590,7 @@
       <c r="B184" s="45"/>
       <c r="C184" s="33"/>
       <c r="D184" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E184" s="40"/>
       <c r="F184" s="63"/>
@@ -6719,7 +6673,7 @@
       <c r="B188" s="38"/>
       <c r="C188" s="37"/>
       <c r="D188" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E188" s="40" t="str">
         <f aca="false">$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
@@ -6727,23 +6681,23 @@
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J188" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K188" s="0"/>
       <c r="L188" s="37"/>
       <c r="M188" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N188" s="42"/>
       <c r="O188" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P188" s="43"/>
     </row>
@@ -6752,7 +6706,7 @@
       <c r="B189" s="45"/>
       <c r="C189" s="46"/>
       <c r="D189" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E189" s="40"/>
       <c r="F189" s="33"/>
@@ -6808,7 +6762,7 @@
       <c r="B191" s="45"/>
       <c r="C191" s="46"/>
       <c r="D191" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E191" s="40"/>
       <c r="F191" s="57" t="str">
@@ -6873,7 +6827,7 @@
       <c r="B194" s="45"/>
       <c r="C194" s="33"/>
       <c r="D194" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E194" s="40"/>
       <c r="F194" s="57"/>
@@ -6916,7 +6870,7 @@
       <c r="D196" s="62"/>
       <c r="E196" s="40"/>
       <c r="F196" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G196" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D195</f>
@@ -6966,7 +6920,7 @@
       <c r="J198" s="67"/>
       <c r="K198" s="67"/>
       <c r="L198" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M198" s="46"/>
       <c r="N198" s="42"/>
@@ -7022,7 +6976,7 @@
       <c r="D201" s="62"/>
       <c r="E201" s="40"/>
       <c r="F201" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G201" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -7043,7 +6997,7 @@
       <c r="B202" s="45"/>
       <c r="C202" s="33"/>
       <c r="D202" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E202" s="40"/>
       <c r="F202" s="63"/>
@@ -7077,7 +7031,7 @@
       <c r="J203" s="67"/>
       <c r="K203" s="33"/>
       <c r="L203" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M203" s="33"/>
       <c r="N203" s="33"/>
@@ -7089,7 +7043,7 @@
       <c r="B204" s="45"/>
       <c r="C204" s="33"/>
       <c r="D204" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E204" s="40"/>
       <c r="F204" s="63"/>
@@ -7172,7 +7126,7 @@
       <c r="B209" s="38"/>
       <c r="C209" s="37"/>
       <c r="D209" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E209" s="40" t="str">
         <f aca="false">$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
@@ -7180,23 +7134,23 @@
       </c>
       <c r="F209" s="37"/>
       <c r="G209" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H209" s="37"/>
       <c r="I209" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J209" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K209" s="0"/>
       <c r="L209" s="37"/>
       <c r="M209" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N209" s="42"/>
       <c r="O209" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P209" s="43"/>
     </row>
@@ -7205,7 +7159,7 @@
       <c r="B210" s="45"/>
       <c r="C210" s="46"/>
       <c r="D210" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E210" s="40"/>
       <c r="F210" s="33"/>
@@ -7261,7 +7215,7 @@
       <c r="B212" s="45"/>
       <c r="C212" s="46"/>
       <c r="D212" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E212" s="40"/>
       <c r="F212" s="57" t="str">
@@ -7326,7 +7280,7 @@
       <c r="B215" s="45"/>
       <c r="C215" s="33"/>
       <c r="D215" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E215" s="40"/>
       <c r="F215" s="57"/>
@@ -7369,7 +7323,7 @@
       <c r="D217" s="62"/>
       <c r="E217" s="40"/>
       <c r="F217" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G217" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D216</f>
@@ -7419,7 +7373,7 @@
       <c r="J219" s="67"/>
       <c r="K219" s="67"/>
       <c r="L219" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M219" s="46"/>
       <c r="N219" s="42"/>
@@ -7475,7 +7429,7 @@
       <c r="D222" s="62"/>
       <c r="E222" s="40"/>
       <c r="F222" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G222" s="72" t="str">
         <f aca="false">"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -7496,7 +7450,7 @@
       <c r="B223" s="45"/>
       <c r="C223" s="33"/>
       <c r="D223" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E223" s="40"/>
       <c r="F223" s="63"/>
@@ -7530,7 +7484,7 @@
       <c r="J224" s="67"/>
       <c r="K224" s="33"/>
       <c r="L224" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M224" s="33"/>
       <c r="N224" s="33"/>
@@ -7542,7 +7496,7 @@
       <c r="B225" s="45"/>
       <c r="C225" s="33"/>
       <c r="D225" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E225" s="40"/>
       <c r="F225" s="63"/>
@@ -7625,7 +7579,7 @@
       <c r="B230" s="38"/>
       <c r="C230" s="37"/>
       <c r="D230" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E230" s="40" t="str">
         <f aca="false">$D237 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
@@ -7633,23 +7587,23 @@
       </c>
       <c r="F230" s="37"/>
       <c r="G230" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H230" s="37"/>
       <c r="I230" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J230" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K230" s="0"/>
       <c r="L230" s="37"/>
       <c r="M230" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N230" s="42"/>
       <c r="O230" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P230" s="43"/>
     </row>
@@ -7658,7 +7612,7 @@
       <c r="B231" s="45"/>
       <c r="C231" s="46"/>
       <c r="D231" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E231" s="40"/>
       <c r="F231" s="33"/>
@@ -7714,7 +7668,7 @@
       <c r="B233" s="45"/>
       <c r="C233" s="46"/>
       <c r="D233" s="56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E233" s="40"/>
       <c r="F233" s="57" t="str">
@@ -7779,7 +7733,7 @@
       <c r="B236" s="45"/>
       <c r="C236" s="33"/>
       <c r="D236" s="60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E236" s="40"/>
       <c r="F236" s="57"/>
@@ -7822,7 +7776,7 @@
       <c r="D238" s="62"/>
       <c r="E238" s="40"/>
       <c r="F238" s="63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G238" s="72" t="str">
         <f aca="false">"İsim : "&amp;$D237</f>
@@ -7872,7 +7826,7 @@
       <c r="J240" s="67"/>
       <c r="K240" s="67"/>
       <c r="L240" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M240" s="46"/>
       <c r="N240" s="42"/>
@@ -7928,7 +7882,7 @@
       <c r="D243" s="62"/>
       <c r="E243" s="40"/>
       <c r="F243" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G243" s="72" t="str">
         <f aca="false">"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
@@ -7949,7 +7903,7 @@
       <c r="B244" s="45"/>
       <c r="C244" s="33"/>
       <c r="D244" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E244" s="40"/>
       <c r="F244" s="63"/>
@@ -7983,7 +7937,7 @@
       <c r="J245" s="67"/>
       <c r="K245" s="33"/>
       <c r="L245" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M245" s="33"/>
       <c r="N245" s="33"/>
@@ -7995,7 +7949,7 @@
       <c r="B246" s="45"/>
       <c r="C246" s="33"/>
       <c r="D246" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E246" s="40"/>
       <c r="F246" s="63"/>
